--- a/aoiConditions/train2P2Block7Test.xlsx
+++ b/aoiConditions/train2P2Block7Test.xlsx
@@ -34,28 +34,28 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/04_kitoti2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
-  </si>
-  <si>
-    <t>pngimages/26_pineapple.png</t>
-  </si>
-  <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/16_icecream.png</t>
-  </si>
-  <si>
-    <t>pngimages/27_kiwi.png</t>
+    <t>trainingaudio/09_tipata2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/09_plane.png</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
+  </si>
+  <si>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/23_lemon.png</t>
+  </si>
+  <si>
+    <t>pngimages/10_backpack.png</t>
   </si>
 </sst>
 </file>
@@ -473,10 +473,10 @@
         <v>13</v>
       </c>
       <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
         <v>-0.5</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/aoiConditions/train2P2Block7Test.xlsx
+++ b/aoiConditions/train2P2Block7Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>audioTrue</t>
   </si>
@@ -22,7 +22,7 @@
     <t>imageTrue</t>
   </si>
   <si>
-    <t>audioFalse</t>
+    <t>currentPhase</t>
   </si>
   <si>
     <t>imageFalse</t>
@@ -46,10 +46,7 @@
     <t>pngimages/17_cracker.png</t>
   </si>
   <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
+    <t>train2P2</t>
   </si>
   <si>
     <t>pngimages/23_lemon.png</t>
@@ -450,7 +447,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>-0.5</v>
@@ -467,10 +464,10 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0.5</v>
